--- a/results/etwfe_lt.xlsx
+++ b/results/etwfe_lt.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,7 +400,7 @@
         <v>-0.001687197435987922</v>
       </c>
       <c r="D2">
-        <v>2.642761632383561e-08</v>
+        <v>2.642761632383561E-08</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         <v>-0.0007988746306924406</v>
       </c>
       <c r="D8">
-        <v>4.719672112088193e-06</v>
+        <v>4.719672112088193E-06</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
         <v>-0.001110646280160459</v>
       </c>
       <c r="C10">
-        <v>-1.667818439915871e-05</v>
+        <v>-1.667818439915871E-05</v>
       </c>
       <c r="D10">
         <v>0.0437795863414278</v>
@@ -598,7 +598,7 @@
         <v>0.002597715889677573</v>
       </c>
       <c r="D11">
-        <v>7.923495663007505e-08</v>
+        <v>7.923495663007505E-08</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -651,6 +651,5330 @@
       </c>
       <c r="F13">
         <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>-0.000501978189144848</v>
+      </c>
+      <c r="B14">
+        <v>-0.001966901900360143</v>
+      </c>
+      <c r="C14">
+        <v>0.0009629455220704467</v>
+      </c>
+      <c r="D14">
+        <v>0.4795337723866626</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>AGO</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>-0.002399241447900625</v>
+      </c>
+      <c r="B15">
+        <v>-0.003540967999641483</v>
+      </c>
+      <c r="C15">
+        <v>-0.001257514896159767</v>
+      </c>
+      <c r="D15">
+        <v>0.0003639882220428281</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AGO</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.001919230528258665</v>
+      </c>
+      <c r="B16">
+        <v>0.0007648472737050765</v>
+      </c>
+      <c r="C16">
+        <v>0.003073613782812253</v>
+      </c>
+      <c r="D16">
+        <v>0.002698652642440329</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>AGO</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>-0.002091080176755389</v>
+      </c>
+      <c r="B17">
+        <v>-0.003135788175640052</v>
+      </c>
+      <c r="C17">
+        <v>-0.001046372177870726</v>
+      </c>
+      <c r="D17">
+        <v>0.0005725077842847726</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>AGO</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>-0.0002748288892937797</v>
+      </c>
+      <c r="B18">
+        <v>-0.001285751589239081</v>
+      </c>
+      <c r="C18">
+        <v>0.0007360938106515218</v>
+      </c>
+      <c r="D18">
+        <v>0.5737670306684689</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>AGO</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.0005325540035422773</v>
+      </c>
+      <c r="B19">
+        <v>-0.00191117286266321</v>
+      </c>
+      <c r="C19">
+        <v>0.002976280869747765</v>
+      </c>
+      <c r="D19">
+        <v>0.6377338423022956</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ARM</t>
+        </is>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>-1.78398945633004E-05</v>
+      </c>
+      <c r="B20">
+        <v>-0.0009894961045397496</v>
+      </c>
+      <c r="C20">
+        <v>0.0009538163154131487</v>
+      </c>
+      <c r="D20">
+        <v>0.9694340267316961</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BDI</t>
+        </is>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>-0.0007554811328501335</v>
+      </c>
+      <c r="B21">
+        <v>-0.001520495834051849</v>
+      </c>
+      <c r="C21">
+        <v>9.533568351581772E-06</v>
+      </c>
+      <c r="D21">
+        <v>0.05259033883497532</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>BDI</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>-0.001146009373109567</v>
+      </c>
+      <c r="B22">
+        <v>-0.001853698810607663</v>
+      </c>
+      <c r="C22">
+        <v>-0.0004383199356114699</v>
+      </c>
+      <c r="D22">
+        <v>0.003414597332413165</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>BDI</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>2.074908514808873E-05</v>
+      </c>
+      <c r="B23">
+        <v>-0.0006938726452101418</v>
+      </c>
+      <c r="C23">
+        <v>0.0007353708155063192</v>
+      </c>
+      <c r="D23">
+        <v>0.9516822686624333</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BDI</t>
+        </is>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>-0.0003338979342038001</v>
+      </c>
+      <c r="B24">
+        <v>-0.001063349446495443</v>
+      </c>
+      <c r="C24">
+        <v>0.0003955535780878427</v>
+      </c>
+      <c r="D24">
+        <v>0.3463075879796822</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BDI</t>
+        </is>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>-0.00110427797785754</v>
+      </c>
+      <c r="B25">
+        <v>-0.001797358399850951</v>
+      </c>
+      <c r="C25">
+        <v>-0.0004111975558641298</v>
+      </c>
+      <c r="D25">
+        <v>0.003837105358794387</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>BDI</t>
+        </is>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>-0.001777756113927931</v>
+      </c>
+      <c r="B26">
+        <v>-0.002553443706901558</v>
+      </c>
+      <c r="C26">
+        <v>-0.001002068520954303</v>
+      </c>
+      <c r="D26">
+        <v>0.000174287104516554</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>BDI</t>
+        </is>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>-0.0004548475964552167</v>
+      </c>
+      <c r="B27">
+        <v>-0.00129374365664694</v>
+      </c>
+      <c r="C27">
+        <v>0.0003840484637365071</v>
+      </c>
+      <c r="D27">
+        <v>0.267280007356576</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>BDI</t>
+        </is>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>1.718461520926181E-05</v>
+      </c>
+      <c r="B28">
+        <v>-0.0009188988870453863</v>
+      </c>
+      <c r="C28">
+        <v>0.00095326811746391</v>
+      </c>
+      <c r="D28">
+        <v>0.9694378553895482</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>BDI</t>
+        </is>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>-0.000568567117310108</v>
+      </c>
+      <c r="B29">
+        <v>-0.001310004015298496</v>
+      </c>
+      <c r="C29">
+        <v>0.00017286978067828</v>
+      </c>
+      <c r="D29">
+        <v>0.1235584789620174</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>BDI</t>
+        </is>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>-0.0001970618398603385</v>
+      </c>
+      <c r="B30">
+        <v>-0.0008984808845467294</v>
+      </c>
+      <c r="C30">
+        <v>0.0005043572048260524</v>
+      </c>
+      <c r="D30">
+        <v>0.5597856772206251</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>BDI</t>
+        </is>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>-0.0004542628082268823</v>
+      </c>
+      <c r="B31">
+        <v>-0.002684633366856108</v>
+      </c>
+      <c r="C31">
+        <v>0.001776107750402343</v>
+      </c>
+      <c r="D31">
+        <v>0.6716746407867711</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>BDI</t>
+        </is>
+      </c>
+      <c r="F31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.0001107486841897577</v>
+      </c>
+      <c r="B32">
+        <v>-0.001202410589949286</v>
+      </c>
+      <c r="C32">
+        <v>0.001423907958328802</v>
+      </c>
+      <c r="D32">
+        <v>0.8572734875614973</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>BEN</t>
+        </is>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.0001117614487581311</v>
+      </c>
+      <c r="B33">
+        <v>-0.001246829581471201</v>
+      </c>
+      <c r="C33">
+        <v>0.001470352478987463</v>
+      </c>
+      <c r="D33">
+        <v>0.8607437750822182</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>-0.0006302209756848672</v>
+      </c>
+      <c r="B34">
+        <v>-0.001275567090893778</v>
+      </c>
+      <c r="C34">
+        <v>1.512513952404363E-05</v>
+      </c>
+      <c r="D34">
+        <v>0.05477421832335884</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.001056712023858763</v>
+      </c>
+      <c r="B35">
+        <v>0.0003960789729576768</v>
+      </c>
+      <c r="C35">
+        <v>0.00171734507475985</v>
+      </c>
+      <c r="D35">
+        <v>0.004503763023032955</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>9.63884775711101E-05</v>
+      </c>
+      <c r="B36">
+        <v>-0.0004685331357416008</v>
+      </c>
+      <c r="C36">
+        <v>0.000661310090883821</v>
+      </c>
+      <c r="D36">
+        <v>0.716556602733442</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.001258229485163938</v>
+      </c>
+      <c r="B37">
+        <v>0.0006120177718434469</v>
+      </c>
+      <c r="C37">
+        <v>0.001904441198484429</v>
+      </c>
+      <c r="D37">
+        <v>0.001142722156200988</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.001621691028776314</v>
+      </c>
+      <c r="B38">
+        <v>0.0009538877414585794</v>
+      </c>
+      <c r="C38">
+        <v>0.002289494316094049</v>
+      </c>
+      <c r="D38">
+        <v>0.0001911244933524037</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.002112200610846308</v>
+      </c>
+      <c r="B39">
+        <v>0.001457027160820575</v>
+      </c>
+      <c r="C39">
+        <v>0.00276737406087204</v>
+      </c>
+      <c r="D39">
+        <v>1.386545210557087E-05</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>-0.0006602039674333141</v>
+      </c>
+      <c r="B40">
+        <v>-0.002918791358797266</v>
+      </c>
+      <c r="C40">
+        <v>0.001598383423930637</v>
+      </c>
+      <c r="D40">
+        <v>0.5013240830213443</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>BGD</t>
+        </is>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>-0.001440407971508432</v>
+      </c>
+      <c r="B41">
+        <v>-0.001659442245195949</v>
+      </c>
+      <c r="C41">
+        <v>-0.001221373697820916</v>
+      </c>
+      <c r="D41">
+        <v>1.212168147226272E-07</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>BOL</t>
+        </is>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>-0.00176539247806906</v>
+      </c>
+      <c r="B42">
+        <v>-0.001874236473685344</v>
+      </c>
+      <c r="C42">
+        <v>-0.001656548482452775</v>
+      </c>
+      <c r="D42">
+        <v>4.111460386057611E-11</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>BOL</t>
+        </is>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>-0.001831942772376048</v>
+      </c>
+      <c r="B43">
+        <v>-0.001939894732331926</v>
+      </c>
+      <c r="C43">
+        <v>-0.00172399081242017</v>
+      </c>
+      <c r="D43">
+        <v>2.742937083454329E-11</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>BOL</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>-0.0009781180636138592</v>
+      </c>
+      <c r="B44">
+        <v>-0.001086685195567957</v>
+      </c>
+      <c r="C44">
+        <v>-0.0008695509316597613</v>
+      </c>
+      <c r="D44">
+        <v>7.68845488019382E-09</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>BOL</t>
+        </is>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>-0.001902784844568001</v>
+      </c>
+      <c r="B45">
+        <v>-0.002775415346388796</v>
+      </c>
+      <c r="C45">
+        <v>-0.001030154342747206</v>
+      </c>
+      <c r="D45">
+        <v>0.0008103602339256622</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>BOL</t>
+        </is>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>-0.001824289664417243</v>
+      </c>
+      <c r="B46">
+        <v>-0.001920817605061772</v>
+      </c>
+      <c r="C46">
+        <v>-0.001727761723772713</v>
+      </c>
+      <c r="D46">
+        <v>1.045856267908676E-11</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>BOL</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>-0.002222280815536927</v>
+      </c>
+      <c r="B47">
+        <v>-0.002335167506933733</v>
+      </c>
+      <c r="C47">
+        <v>-0.002109394124140121</v>
+      </c>
+      <c r="D47">
+        <v>7.256300559590752E-12</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>BOL</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.001576260690737117</v>
+      </c>
+      <c r="B48">
+        <v>-0.0008893767857063248</v>
+      </c>
+      <c r="C48">
+        <v>0.00404189816718056</v>
+      </c>
+      <c r="D48">
+        <v>0.1905267221990694</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>CIV</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>-0.003440957430441613</v>
+      </c>
+      <c r="B49">
+        <v>-0.004363895464063827</v>
+      </c>
+      <c r="C49">
+        <v>-0.002518019396819401</v>
+      </c>
+      <c r="D49">
+        <v>8.453152055640111E-06</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>CMR</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>-0.003075780694480875</v>
+      </c>
+      <c r="B50">
+        <v>-0.00380341351617503</v>
+      </c>
+      <c r="C50">
+        <v>-0.002348147872786721</v>
+      </c>
+      <c r="D50">
+        <v>2.744699844238275E-06</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>CMR</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>-0.002722142007628395</v>
+      </c>
+      <c r="B51">
+        <v>-0.00565316925229913</v>
+      </c>
+      <c r="C51">
+        <v>0.0002088852370423404</v>
+      </c>
+      <c r="D51">
+        <v>0.06760159166568321</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.003974365439498859</v>
+      </c>
+      <c r="B52">
+        <v>0.002334502231035955</v>
+      </c>
+      <c r="C52">
+        <v>0.005614228647961763</v>
+      </c>
+      <c r="D52">
+        <v>0.0002394906342189293</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>COG</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>-2.214185652861749E-05</v>
+      </c>
+      <c r="B53">
+        <v>-0.001698280433386224</v>
+      </c>
+      <c r="C53">
+        <v>0.001653996720328989</v>
+      </c>
+      <c r="D53">
+        <v>0.9752622690341383</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>-0.0009968590178800227</v>
+      </c>
+      <c r="B54">
+        <v>-0.00326313762749763</v>
+      </c>
+      <c r="C54">
+        <v>0.001269419591737584</v>
+      </c>
+      <c r="D54">
+        <v>0.3633260480148048</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>CUB</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>-3.309719392626709E-05</v>
+      </c>
+      <c r="B55">
+        <v>-0.0007889688396488642</v>
+      </c>
+      <c r="C55">
+        <v>0.00072277445179633</v>
+      </c>
+      <c r="D55">
+        <v>0.9268771087613112</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>CUB</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>-0.001974266035176147</v>
+      </c>
+      <c r="B56">
+        <v>-0.002457252829153648</v>
+      </c>
+      <c r="C56">
+        <v>-0.001491279241198646</v>
+      </c>
+      <c r="D56">
+        <v>2.965107160395828E-07</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>CUB</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>-0.001796101536350916</v>
+      </c>
+      <c r="B57">
+        <v>-0.002742520307752879</v>
+      </c>
+      <c r="C57">
+        <v>-0.0008496827649489523</v>
+      </c>
+      <c r="D57">
+        <v>0.001057904651447483</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>CUB</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.0007593063596623833</v>
+      </c>
+      <c r="B58">
+        <v>0.0002871981206822442</v>
+      </c>
+      <c r="C58">
+        <v>0.001231414598642522</v>
+      </c>
+      <c r="D58">
+        <v>0.003736205941500691</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>CUB</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>-0.00341678961236968</v>
+      </c>
+      <c r="B59">
+        <v>-0.006994986623331994</v>
+      </c>
+      <c r="C59">
+        <v>0.0001614073985926347</v>
+      </c>
+      <c r="D59">
+        <v>0.05988685426880753</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>CUB</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>-0.007320348657149259</v>
+      </c>
+      <c r="B60">
+        <v>-0.008081605587172148</v>
+      </c>
+      <c r="C60">
+        <v>-0.006559091727126369</v>
+      </c>
+      <c r="D60">
+        <v>2.21130833582491E-12</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>CUB</t>
+        </is>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>-0.001529810320800575</v>
+      </c>
+      <c r="B61">
+        <v>-0.002498884685863448</v>
+      </c>
+      <c r="C61">
+        <v>-0.0005607359557377027</v>
+      </c>
+      <c r="D61">
+        <v>0.00556244335406998</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>-0.002171764781312384</v>
+      </c>
+      <c r="B62">
+        <v>-0.003079043180554995</v>
+      </c>
+      <c r="C62">
+        <v>-0.001264486382069774</v>
+      </c>
+      <c r="D62">
+        <v>0.0003312899790205809</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>-0.0009136063832166276</v>
+      </c>
+      <c r="B63">
+        <v>-0.001618958859727474</v>
+      </c>
+      <c r="C63">
+        <v>-0.0002082539067057811</v>
+      </c>
+      <c r="D63">
+        <v>0.01621814619744104</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>-0.001921812917413405</v>
+      </c>
+      <c r="B64">
+        <v>-0.003036581607625828</v>
+      </c>
+      <c r="C64">
+        <v>-0.0008070442272009816</v>
+      </c>
+      <c r="D64">
+        <v>0.003258615763949211</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.001686043660650177</v>
+      </c>
+      <c r="B65">
+        <v>0.0006915089299011432</v>
+      </c>
+      <c r="C65">
+        <v>0.00268057839139921</v>
+      </c>
+      <c r="D65">
+        <v>0.003617448083247064</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>-0.005643820905507191</v>
+      </c>
+      <c r="B66">
+        <v>-0.006810424554083972</v>
+      </c>
+      <c r="C66">
+        <v>-0.00447721725693041</v>
+      </c>
+      <c r="D66">
+        <v>7.957235873813298E-07</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>-0.003092967604656887</v>
+      </c>
+      <c r="B67">
+        <v>-0.003941308387043747</v>
+      </c>
+      <c r="C67">
+        <v>-0.002244626822270027</v>
+      </c>
+      <c r="D67">
+        <v>1.029291309440544E-05</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>-0.001148177494408767</v>
+      </c>
+      <c r="B68">
+        <v>-0.002384314774465116</v>
+      </c>
+      <c r="C68">
+        <v>8.795978564758093E-05</v>
+      </c>
+      <c r="D68">
+        <v>0.06532853192623607</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>GEO</t>
+        </is>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.001319268665389081</v>
+      </c>
+      <c r="B69">
+        <v>-0.001042013022902094</v>
+      </c>
+      <c r="C69">
+        <v>0.003680550353680256</v>
+      </c>
+      <c r="D69">
+        <v>0.2415588856710116</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>-0.0003955383266409556</v>
+      </c>
+      <c r="B70">
+        <v>-0.000924830905487896</v>
+      </c>
+      <c r="C70">
+        <v>0.0001337542522059847</v>
+      </c>
+      <c r="D70">
+        <v>0.1127859960023261</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>GMB</t>
+        </is>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.0001421195828692971</v>
+      </c>
+      <c r="B71">
+        <v>-0.0008825718656189838</v>
+      </c>
+      <c r="C71">
+        <v>0.001166811031357578</v>
+      </c>
+      <c r="D71">
+        <v>0.7359975881366524</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>GMB</t>
+        </is>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>-0.001642971781250238</v>
+      </c>
+      <c r="B72">
+        <v>-0.004442755084587536</v>
+      </c>
+      <c r="C72">
+        <v>0.001156811522087061</v>
+      </c>
+      <c r="D72">
+        <v>0.2129822538323269</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>GNB</t>
+        </is>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.0004039086949981105</v>
+      </c>
+      <c r="B73">
+        <v>-0.000910364988435214</v>
+      </c>
+      <c r="C73">
+        <v>0.001718182378431435</v>
+      </c>
+      <c r="D73">
+        <v>0.5296573652678379</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>GTM</t>
+        </is>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>-7.52512793597856E-06</v>
+      </c>
+      <c r="B74">
+        <v>-0.001068899945686417</v>
+      </c>
+      <c r="C74">
+        <v>0.00105384968981446</v>
+      </c>
+      <c r="D74">
+        <v>0.988375262320906</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>GTM</t>
+        </is>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>-0.0006630896118254255</v>
+      </c>
+      <c r="B75">
+        <v>-0.003084369495478777</v>
+      </c>
+      <c r="C75">
+        <v>0.001758190271827926</v>
+      </c>
+      <c r="D75">
+        <v>0.5509379276750918</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>GUY</t>
+        </is>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>-0.001800584567864273</v>
+      </c>
+      <c r="B76">
+        <v>-0.00277790453762125</v>
+      </c>
+      <c r="C76">
+        <v>-0.000823264598107295</v>
+      </c>
+      <c r="D76">
+        <v>0.002419763628221874</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>GUY</t>
+        </is>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.003092981835418164</v>
+      </c>
+      <c r="B77">
+        <v>-0.0003742791149802601</v>
+      </c>
+      <c r="C77">
+        <v>0.006560242785816588</v>
+      </c>
+      <c r="D77">
+        <v>0.07817964783449806</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>HND</t>
+        </is>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>-0.0002794176781514069</v>
+      </c>
+      <c r="B78">
+        <v>-0.002164716526174503</v>
+      </c>
+      <c r="C78">
+        <v>0.001605881169871689</v>
+      </c>
+      <c r="D78">
+        <v>0.7630600029777286</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>HND</t>
+        </is>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>-0.001099139519055303</v>
+      </c>
+      <c r="B79">
+        <v>-0.004901196617181162</v>
+      </c>
+      <c r="C79">
+        <v>0.002702917579070556</v>
+      </c>
+      <c r="D79">
+        <v>0.5574910425878328</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>HND</t>
+        </is>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.002493980478310422</v>
+      </c>
+      <c r="B80">
+        <v>-0.00233871601005445</v>
+      </c>
+      <c r="C80">
+        <v>0.007326676966675294</v>
+      </c>
+      <c r="D80">
+        <v>0.2985428018970517</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>HND</t>
+        </is>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>-0.001277995647200788</v>
+      </c>
+      <c r="B81">
+        <v>-0.007757513654799003</v>
+      </c>
+      <c r="C81">
+        <v>0.005201522360397426</v>
+      </c>
+      <c r="D81">
+        <v>0.6884821400978667</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>HND</t>
+        </is>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.0015087671639063</v>
+      </c>
+      <c r="B82">
+        <v>0.0001490218031452225</v>
+      </c>
+      <c r="C82">
+        <v>0.002868512524667378</v>
+      </c>
+      <c r="D82">
+        <v>0.03330643120449481</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>HTI</t>
+        </is>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>-0.0004764628714249802</v>
+      </c>
+      <c r="B83">
+        <v>-0.001316337720363449</v>
+      </c>
+      <c r="C83">
+        <v>0.0003634119775134891</v>
+      </c>
+      <c r="D83">
+        <v>0.256417972041506</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>IDN</t>
+        </is>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.001979841698848156</v>
+      </c>
+      <c r="B84">
+        <v>0.001531081579876847</v>
+      </c>
+      <c r="C84">
+        <v>0.002428601817819464</v>
+      </c>
+      <c r="D84">
+        <v>2.894404878871486E-10</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>IDN</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.002248970035197143</v>
+      </c>
+      <c r="B85">
+        <v>0.001775270749156876</v>
+      </c>
+      <c r="C85">
+        <v>0.00272266932123741</v>
+      </c>
+      <c r="D85">
+        <v>5.110516135461594E-11</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>IDN</t>
+        </is>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.001606829275459701</v>
+      </c>
+      <c r="B86">
+        <v>0.001204736224537722</v>
+      </c>
+      <c r="C86">
+        <v>0.002008922326381681</v>
+      </c>
+      <c r="D86">
+        <v>2.691882812563247E-09</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>IDN</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>-0.00273980227691392</v>
+      </c>
+      <c r="B87">
+        <v>-0.003006643820121993</v>
+      </c>
+      <c r="C87">
+        <v>-0.002472960733705848</v>
+      </c>
+      <c r="D87">
+        <v>2.573821904733491E-21</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.001688445612401262</v>
+      </c>
+      <c r="B88">
+        <v>0.001425925810972588</v>
+      </c>
+      <c r="C88">
+        <v>0.001950965413829936</v>
+      </c>
+      <c r="D88">
+        <v>5.15798665799405E-15</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.0008556784985088871</v>
+      </c>
+      <c r="B89">
+        <v>-0.0002997688378325069</v>
+      </c>
+      <c r="C89">
+        <v>0.002011125834850281</v>
+      </c>
+      <c r="D89">
+        <v>0.141701975175802</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.001088901510043149</v>
+      </c>
+      <c r="B90">
+        <v>0.0008087778500424306</v>
+      </c>
+      <c r="C90">
+        <v>0.001369025170043866</v>
+      </c>
+      <c r="D90">
+        <v>2.808127083125079E-09</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>-0.001204290717373117</v>
+      </c>
+      <c r="B91">
+        <v>-0.002658478568875272</v>
+      </c>
+      <c r="C91">
+        <v>0.0002498971341290375</v>
+      </c>
+      <c r="D91">
+        <v>0.1016201184376794</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>-0.000677087078820009</v>
+      </c>
+      <c r="B92">
+        <v>-0.0009928618342943212</v>
+      </c>
+      <c r="C92">
+        <v>-0.000361312323345697</v>
+      </c>
+      <c r="D92">
+        <v>0.0001111728764685141</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>-0.0003108000916835977</v>
+      </c>
+      <c r="B93">
+        <v>-0.0005743673738222003</v>
+      </c>
+      <c r="C93">
+        <v>-4.723280954499514E-05</v>
+      </c>
+      <c r="D93">
+        <v>0.02216238661232942</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>-0.001000289587580574</v>
+      </c>
+      <c r="B94">
+        <v>-0.00167860425194165</v>
+      </c>
+      <c r="C94">
+        <v>-0.0003219749232194979</v>
+      </c>
+      <c r="D94">
+        <v>0.00503012072589884</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.0003624212079087436</v>
+      </c>
+      <c r="B95">
+        <v>8.147459714692614E-05</v>
+      </c>
+      <c r="C95">
+        <v>0.0006433678186705612</v>
+      </c>
+      <c r="D95">
+        <v>0.0129531333710078</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>-0.001057386150455157</v>
+      </c>
+      <c r="B96">
+        <v>-0.002855433253344687</v>
+      </c>
+      <c r="C96">
+        <v>0.000740660952434374</v>
+      </c>
+      <c r="D96">
+        <v>0.2405637278498982</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F96">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>-0.000897421498565117</v>
+      </c>
+      <c r="B97">
+        <v>-0.002100018780561965</v>
+      </c>
+      <c r="C97">
+        <v>0.0003051757834317316</v>
+      </c>
+      <c r="D97">
+        <v>0.1387674354618601</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F97">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.0006058386969357516</v>
+      </c>
+      <c r="B98">
+        <v>-0.0001846501535972715</v>
+      </c>
+      <c r="C98">
+        <v>0.001396327547468774</v>
+      </c>
+      <c r="D98">
+        <v>0.1287301813507757</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F98">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>-0.0003368622806845302</v>
+      </c>
+      <c r="B99">
+        <v>-0.0006110849886215239</v>
+      </c>
+      <c r="C99">
+        <v>-6.263957274753659E-05</v>
+      </c>
+      <c r="D99">
+        <v>0.01751109111692248</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F99">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>-0.000490275261708949</v>
+      </c>
+      <c r="B100">
+        <v>-0.0007607206137761494</v>
+      </c>
+      <c r="C100">
+        <v>-0.0002198299096417486</v>
+      </c>
+      <c r="D100">
+        <v>0.0007785711801240893</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F100">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.0006794273835628967</v>
+      </c>
+      <c r="B101">
+        <v>-0.0001348608562026925</v>
+      </c>
+      <c r="C101">
+        <v>0.001493715623328486</v>
+      </c>
+      <c r="D101">
+        <v>0.0946756859402979</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>JAM</t>
+        </is>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>-0.0006855332850313873</v>
+      </c>
+      <c r="B102">
+        <v>-0.001071941341628997</v>
+      </c>
+      <c r="C102">
+        <v>-0.0002991252284337772</v>
+      </c>
+      <c r="D102">
+        <v>0.0008462558709323911</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>-0.0001812205476811478</v>
+      </c>
+      <c r="B103">
+        <v>-0.0005843878312168162</v>
+      </c>
+      <c r="C103">
+        <v>0.0002219467358545206</v>
+      </c>
+      <c r="D103">
+        <v>0.3702959961449889</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>-0.000131905059758478</v>
+      </c>
+      <c r="B104">
+        <v>-0.0005465583936976291</v>
+      </c>
+      <c r="C104">
+        <v>0.000282748274180673</v>
+      </c>
+      <c r="D104">
+        <v>0.5251410324585748</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>0.0001632977866954277</v>
+      </c>
+      <c r="B105">
+        <v>-0.0002368187762018466</v>
+      </c>
+      <c r="C105">
+        <v>0.0005634143495927019</v>
+      </c>
+      <c r="D105">
+        <v>0.4155911308525597</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>0.0004462539255967227</v>
+      </c>
+      <c r="B106">
+        <v>5.755476317392317E-05</v>
+      </c>
+      <c r="C106">
+        <v>0.0008349530880195222</v>
+      </c>
+      <c r="D106">
+        <v>0.02537033496047355</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>-0.001804821486030708</v>
+      </c>
+      <c r="B107">
+        <v>-0.002238557614718079</v>
+      </c>
+      <c r="C107">
+        <v>-0.001371085357343335</v>
+      </c>
+      <c r="D107">
+        <v>8.307716042073686E-11</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>0.0001499543916324441</v>
+      </c>
+      <c r="B108">
+        <v>-0.0002437085110096782</v>
+      </c>
+      <c r="C108">
+        <v>0.0005436172942745664</v>
+      </c>
+      <c r="D108">
+        <v>0.4471453112139419</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>0.0001010415023705631</v>
+      </c>
+      <c r="B109">
+        <v>-0.0003390816201836984</v>
+      </c>
+      <c r="C109">
+        <v>0.0005411646249248246</v>
+      </c>
+      <c r="D109">
+        <v>0.646179576050028</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>-6.077924071807546E-05</v>
+      </c>
+      <c r="B110">
+        <v>-0.0004731591302468001</v>
+      </c>
+      <c r="C110">
+        <v>0.0003516006488106491</v>
+      </c>
+      <c r="D110">
+        <v>0.7680510970713919</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>-0.0009506081383604349</v>
+      </c>
+      <c r="B111">
+        <v>-0.001345763345471635</v>
+      </c>
+      <c r="C111">
+        <v>-0.0005554529312492343</v>
+      </c>
+      <c r="D111">
+        <v>1.489086931309812E-05</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F111">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>0.0002935649315471977</v>
+      </c>
+      <c r="B112">
+        <v>-0.0001179791968565039</v>
+      </c>
+      <c r="C112">
+        <v>0.0007051090599508994</v>
+      </c>
+      <c r="D112">
+        <v>0.1578108988741114</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F112">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>-0.0002279255571486689</v>
+      </c>
+      <c r="B113">
+        <v>-0.0006433382632463968</v>
+      </c>
+      <c r="C113">
+        <v>0.000187487148949059</v>
+      </c>
+      <c r="D113">
+        <v>0.2751543957474347</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F113">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>0.0004604626440843677</v>
+      </c>
+      <c r="B114">
+        <v>8.250569436002599E-05</v>
+      </c>
+      <c r="C114">
+        <v>0.0008384195938087094</v>
+      </c>
+      <c r="D114">
+        <v>0.01804869188626313</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>0.0001398559874099562</v>
+      </c>
+      <c r="B115">
+        <v>-0.0002756613457217567</v>
+      </c>
+      <c r="C115">
+        <v>0.0005553733205416692</v>
+      </c>
+      <c r="D115">
+        <v>0.5014784572229924</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>-0.0006162646726242009</v>
+      </c>
+      <c r="B116">
+        <v>-0.001017456140145708</v>
+      </c>
+      <c r="C116">
+        <v>-0.0002150732051026935</v>
+      </c>
+      <c r="D116">
+        <v>0.00337329018684605</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F116">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>-0.0001064466969373848</v>
+      </c>
+      <c r="B117">
+        <v>-0.0005316402888696891</v>
+      </c>
+      <c r="C117">
+        <v>0.0003187468949949195</v>
+      </c>
+      <c r="D117">
+        <v>0.6167184894944602</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F117">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>0.0004741087864457708</v>
+      </c>
+      <c r="B118">
+        <v>0.0001117160182262856</v>
+      </c>
+      <c r="C118">
+        <v>0.000836501554665256</v>
+      </c>
+      <c r="D118">
+        <v>0.01147409095741781</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F118">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>0.001274403879471528</v>
+      </c>
+      <c r="B119">
+        <v>0.0008662483124268463</v>
+      </c>
+      <c r="C119">
+        <v>0.001682559446516211</v>
+      </c>
+      <c r="D119">
+        <v>1.081484714827259E-07</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F119">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>0.0006958682079921632</v>
+      </c>
+      <c r="B120">
+        <v>0.0003405101452982033</v>
+      </c>
+      <c r="C120">
+        <v>0.001051226270686123</v>
+      </c>
+      <c r="D120">
+        <v>0.0002733638034668359</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>-0.000808376410861652</v>
+      </c>
+      <c r="B121">
+        <v>-0.001537458847359854</v>
+      </c>
+      <c r="C121">
+        <v>-7.92939743634503E-05</v>
+      </c>
+      <c r="D121">
+        <v>0.03053972691122002</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F121">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>0.000292844241492569</v>
+      </c>
+      <c r="B122">
+        <v>-0.0001673956533645904</v>
+      </c>
+      <c r="C122">
+        <v>0.0007530841363497284</v>
+      </c>
+      <c r="D122">
+        <v>0.2066919216173138</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F122">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>-0.002458003549621987</v>
+      </c>
+      <c r="B123">
+        <v>-0.002829939788037398</v>
+      </c>
+      <c r="C123">
+        <v>-0.002086067311206576</v>
+      </c>
+      <c r="D123">
+        <v>2.240520601320281E-17</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F123">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>0.0007264018803552736</v>
+      </c>
+      <c r="B124">
+        <v>-4.152830483159767E-05</v>
+      </c>
+      <c r="C124">
+        <v>0.001494332065542145</v>
+      </c>
+      <c r="D124">
+        <v>0.0631707333412465</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F124">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>-0.001143471448833518</v>
+      </c>
+      <c r="B125">
+        <v>-0.001505055472596646</v>
+      </c>
+      <c r="C125">
+        <v>-0.0007818874250703895</v>
+      </c>
+      <c r="D125">
+        <v>8.182197165270226E-08</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F125">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>-0.0009140656093851658</v>
+      </c>
+      <c r="B126">
+        <v>-0.002356294611033421</v>
+      </c>
+      <c r="C126">
+        <v>0.0005281633922630892</v>
+      </c>
+      <c r="D126">
+        <v>0.2084498336445525</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F126">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>0.001378663711393238</v>
+      </c>
+      <c r="B127">
+        <v>-0.0008821503989621152</v>
+      </c>
+      <c r="C127">
+        <v>0.003639477821748592</v>
+      </c>
+      <c r="D127">
+        <v>0.2065833357794437</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>KGZ</t>
+        </is>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>-0.0008024160230306708</v>
+      </c>
+      <c r="B128">
+        <v>-0.001068930569719046</v>
+      </c>
+      <c r="C128">
+        <v>-0.0005359014763422959</v>
+      </c>
+      <c r="D128">
+        <v>2.018222636947434E-06</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>KHM</t>
+        </is>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>-0.001326311220501632</v>
+      </c>
+      <c r="B129">
+        <v>-0.001599214863831792</v>
+      </c>
+      <c r="C129">
+        <v>-0.001053407577171471</v>
+      </c>
+      <c r="D129">
+        <v>4.631139398592789E-10</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>KHM</t>
+        </is>
+      </c>
+      <c r="F129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>-0.0007645602401241899</v>
+      </c>
+      <c r="B130">
+        <v>-0.001414297681012949</v>
+      </c>
+      <c r="C130">
+        <v>-0.0001148227992354309</v>
+      </c>
+      <c r="D130">
+        <v>0.02301699096160469</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>KHM</t>
+        </is>
+      </c>
+      <c r="F130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>-0.0007820098804824119</v>
+      </c>
+      <c r="B131">
+        <v>-0.001070585291135078</v>
+      </c>
+      <c r="C131">
+        <v>-0.0004934344698297462</v>
+      </c>
+      <c r="D131">
+        <v>9.343872923375438E-06</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>KHM</t>
+        </is>
+      </c>
+      <c r="F131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>-0.001368154891295631</v>
+      </c>
+      <c r="B132">
+        <v>-0.001646913950300858</v>
+      </c>
+      <c r="C132">
+        <v>-0.001089395832290403</v>
+      </c>
+      <c r="D132">
+        <v>3.819835099875959E-10</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>KHM</t>
+        </is>
+      </c>
+      <c r="F132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>-0.001645152045924275</v>
+      </c>
+      <c r="B133">
+        <v>-0.001972214483972843</v>
+      </c>
+      <c r="C133">
+        <v>-0.001318089607875708</v>
+      </c>
+      <c r="D133">
+        <v>2.353777817852674E-10</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>KHM</t>
+        </is>
+      </c>
+      <c r="F133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>-0.001818529446035695</v>
+      </c>
+      <c r="B134">
+        <v>-0.00212580073677374</v>
+      </c>
+      <c r="C134">
+        <v>-0.00151125815529765</v>
+      </c>
+      <c r="D134">
+        <v>8.64896476751049E-12</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>KHM</t>
+        </is>
+      </c>
+      <c r="F134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>-0.0007242492715667812</v>
+      </c>
+      <c r="B135">
+        <v>-0.00233280962135261</v>
+      </c>
+      <c r="C135">
+        <v>0.0008843110782190478</v>
+      </c>
+      <c r="D135">
+        <v>0.3554543753003822</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>LAO</t>
+        </is>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>-0.0009077884070622708</v>
+      </c>
+      <c r="B136">
+        <v>-0.002651986828061101</v>
+      </c>
+      <c r="C136">
+        <v>0.0008364100139365596</v>
+      </c>
+      <c r="D136">
+        <v>0.2874801650035931</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>LAO</t>
+        </is>
+      </c>
+      <c r="F136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>0.0005764747582588193</v>
+      </c>
+      <c r="B137">
+        <v>-0.000993554882416136</v>
+      </c>
+      <c r="C137">
+        <v>0.002146504398933775</v>
+      </c>
+      <c r="D137">
+        <v>0.4276798357597345</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>LSO</t>
+        </is>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>-0.001311778608707973</v>
+      </c>
+      <c r="B138">
+        <v>-0.002630703670845464</v>
+      </c>
+      <c r="C138">
+        <v>7.146453429518734E-06</v>
+      </c>
+      <c r="D138">
+        <v>0.05101160204433796</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>LSO</t>
+        </is>
+      </c>
+      <c r="F138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>0.001170417224321424</v>
+      </c>
+      <c r="B139">
+        <v>-2.928684653314426E-05</v>
+      </c>
+      <c r="C139">
+        <v>0.002370121295175992</v>
+      </c>
+      <c r="D139">
+        <v>0.05471823682355094</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>LSO</t>
+        </is>
+      </c>
+      <c r="F139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>-0.000859443642775311</v>
+      </c>
+      <c r="B140">
+        <v>-0.003401623600890073</v>
+      </c>
+      <c r="C140">
+        <v>0.001682736315339451</v>
+      </c>
+      <c r="D140">
+        <v>0.4781245365413728</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>-0.004457595837749979</v>
+      </c>
+      <c r="B141">
+        <v>-0.01407294446303062</v>
+      </c>
+      <c r="C141">
+        <v>0.00515775278753066</v>
+      </c>
+      <c r="D141">
+        <v>0.3530833039037841</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>MDA</t>
+        </is>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>-4.810173969370739E-05</v>
+      </c>
+      <c r="B142">
+        <v>-0.0007208212000592651</v>
+      </c>
+      <c r="C142">
+        <v>0.0006246177206718504</v>
+      </c>
+      <c r="D142">
+        <v>0.8613878156587634</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>-0.0001034939470304712</v>
+      </c>
+      <c r="B143">
+        <v>-0.0005530168594921517</v>
+      </c>
+      <c r="C143">
+        <v>0.0003460289654312093</v>
+      </c>
+      <c r="D143">
+        <v>0.5797111435335724</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="F143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>0.0006611622745152336</v>
+      </c>
+      <c r="B144">
+        <v>0.000236942981743816</v>
+      </c>
+      <c r="C144">
+        <v>0.001085381567286651</v>
+      </c>
+      <c r="D144">
+        <v>0.01025856116996385</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="F144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>0.01040600925002466</v>
+      </c>
+      <c r="B145">
+        <v>0.00881461686046929</v>
+      </c>
+      <c r="C145">
+        <v>0.01199740163958003</v>
+      </c>
+      <c r="D145">
+        <v>1.273409400976691E-07</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>MLI</t>
+        </is>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>0.008487738341545387</v>
+      </c>
+      <c r="B146">
+        <v>0.006016229280890756</v>
+      </c>
+      <c r="C146">
+        <v>0.01095924740220002</v>
+      </c>
+      <c r="D146">
+        <v>2.795783488497908E-05</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>MLI</t>
+        </is>
+      </c>
+      <c r="F146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>0.009283741320124505</v>
+      </c>
+      <c r="B147">
+        <v>0.008802406783679708</v>
+      </c>
+      <c r="C147">
+        <v>0.009765075856569301</v>
+      </c>
+      <c r="D147">
+        <v>8.715692561953317E-12</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>MLI</t>
+        </is>
+      </c>
+      <c r="F147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>0.0104113299065364</v>
+      </c>
+      <c r="B148">
+        <v>0.006386955020942074</v>
+      </c>
+      <c r="C148">
+        <v>0.01443570479213072</v>
+      </c>
+      <c r="D148">
+        <v>0.0002430449965998067</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>MLI</t>
+        </is>
+      </c>
+      <c r="F148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>0.0120791206962802</v>
+      </c>
+      <c r="B149">
+        <v>0.01139136004931865</v>
+      </c>
+      <c r="C149">
+        <v>0.01276688134324175</v>
+      </c>
+      <c r="D149">
+        <v>2.016890617708319E-11</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>MLI</t>
+        </is>
+      </c>
+      <c r="F149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>0.0008824640422973849</v>
+      </c>
+      <c r="B150">
+        <v>-0.0009821031121847355</v>
+      </c>
+      <c r="C150">
+        <v>0.002747031196779505</v>
+      </c>
+      <c r="D150">
+        <v>0.3362015456535016</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>MNG</t>
+        </is>
+      </c>
+      <c r="F150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>-0.0001405514188631656</v>
+      </c>
+      <c r="B151">
+        <v>-0.001435775518935183</v>
+      </c>
+      <c r="C151">
+        <v>0.001154672681208852</v>
+      </c>
+      <c r="D151">
+        <v>0.813831406383676</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>MOZ</t>
+        </is>
+      </c>
+      <c r="F151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>0.0001497752066749981</v>
+      </c>
+      <c r="B152">
+        <v>-0.001248929036927971</v>
+      </c>
+      <c r="C152">
+        <v>0.001548479450277967</v>
+      </c>
+      <c r="D152">
+        <v>0.8162400444587385</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>MOZ</t>
+        </is>
+      </c>
+      <c r="F152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>0.0001900213529692667</v>
+      </c>
+      <c r="B153">
+        <v>-0.001115247728745127</v>
+      </c>
+      <c r="C153">
+        <v>0.00149529043468366</v>
+      </c>
+      <c r="D153">
+        <v>0.7523388866714229</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>MOZ</t>
+        </is>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>-0.0001311163763048287</v>
+      </c>
+      <c r="B154">
+        <v>-0.001802414480083302</v>
+      </c>
+      <c r="C154">
+        <v>0.001540181727473645</v>
+      </c>
+      <c r="D154">
+        <v>0.8647240301899876</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>MOZ</t>
+        </is>
+      </c>
+      <c r="F154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>0.0006084221044036398</v>
+      </c>
+      <c r="B155">
+        <v>-0.0007250798695147441</v>
+      </c>
+      <c r="C155">
+        <v>0.001941924078322024</v>
+      </c>
+      <c r="D155">
+        <v>0.333304848950109</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>MOZ</t>
+        </is>
+      </c>
+      <c r="F155">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>0.001369924763969594</v>
+      </c>
+      <c r="B156">
+        <v>0.0001965952436804141</v>
+      </c>
+      <c r="C156">
+        <v>0.002543254284258775</v>
+      </c>
+      <c r="D156">
+        <v>0.02642472024890342</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>MOZ</t>
+        </is>
+      </c>
+      <c r="F156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>-0.0007126797353430524</v>
+      </c>
+      <c r="B157">
+        <v>-0.001388291873279665</v>
+      </c>
+      <c r="C157">
+        <v>-3.706759740643986E-05</v>
+      </c>
+      <c r="D157">
+        <v>0.04031752471703953</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>MRT</t>
+        </is>
+      </c>
+      <c r="F157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>-0.0006735724746299918</v>
+      </c>
+      <c r="B158">
+        <v>-0.0009021444899135656</v>
+      </c>
+      <c r="C158">
+        <v>-0.000445000459346418</v>
+      </c>
+      <c r="D158">
+        <v>3.300014627676951E-05</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>MRT</t>
+        </is>
+      </c>
+      <c r="F158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>-0.0001657965833267606</v>
+      </c>
+      <c r="B159">
+        <v>-0.0005127667825926098</v>
+      </c>
+      <c r="C159">
+        <v>0.0001811736159390885</v>
+      </c>
+      <c r="D159">
+        <v>0.3183394604016995</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>MRT</t>
+        </is>
+      </c>
+      <c r="F159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>-0.0002420224050229751</v>
+      </c>
+      <c r="B160">
+        <v>-0.0004377638850670295</v>
+      </c>
+      <c r="C160">
+        <v>-4.628092497892068E-05</v>
+      </c>
+      <c r="D160">
+        <v>0.01952597964809668</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>MRT</t>
+        </is>
+      </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>-0.001107348920855851</v>
+      </c>
+      <c r="B161">
+        <v>-0.001285591941755759</v>
+      </c>
+      <c r="C161">
+        <v>-0.000929105899955942</v>
+      </c>
+      <c r="D161">
+        <v>1.250132292641345E-08</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>MRT</t>
+        </is>
+      </c>
+      <c r="F161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>-0.001536871238523478</v>
+      </c>
+      <c r="B162">
+        <v>-0.001755156621259076</v>
+      </c>
+      <c r="C162">
+        <v>-0.001318585855787881</v>
+      </c>
+      <c r="D162">
+        <v>3.006327331252234E-09</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>MRT</t>
+        </is>
+      </c>
+      <c r="F162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>-0.000227883565610087</v>
+      </c>
+      <c r="B163">
+        <v>-0.0005108539627158703</v>
+      </c>
+      <c r="C163">
+        <v>5.508683149569612E-05</v>
+      </c>
+      <c r="D163">
+        <v>0.1047921431773995</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>MRT</t>
+        </is>
+      </c>
+      <c r="F163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>-0.000911223471010056</v>
+      </c>
+      <c r="B164">
+        <v>-0.001116830154337295</v>
+      </c>
+      <c r="C164">
+        <v>-0.000705616787682817</v>
+      </c>
+      <c r="D164">
+        <v>5.219362400878107E-07</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>MRT</t>
+        </is>
+      </c>
+      <c r="F164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>-0.001356683127009942</v>
+      </c>
+      <c r="B165">
+        <v>-0.001588546243644545</v>
+      </c>
+      <c r="C165">
+        <v>-0.001124820010375338</v>
+      </c>
+      <c r="D165">
+        <v>2.45687500127584E-08</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>MRT</t>
+        </is>
+      </c>
+      <c r="F165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>-0.0006157789302875782</v>
+      </c>
+      <c r="B166">
+        <v>-0.001027737959236106</v>
+      </c>
+      <c r="C166">
+        <v>-0.0002038199013390505</v>
+      </c>
+      <c r="D166">
+        <v>0.004872411815605672</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>MWI</t>
+        </is>
+      </c>
+      <c r="F166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>0.0005991916239642196</v>
+      </c>
+      <c r="B167">
+        <v>-0.0005609638044684514</v>
+      </c>
+      <c r="C167">
+        <v>0.001759347052396891</v>
+      </c>
+      <c r="D167">
+        <v>0.2986605964107198</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>MWI</t>
+        </is>
+      </c>
+      <c r="F167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>0.0006957759995956346</v>
+      </c>
+      <c r="B168">
+        <v>0.0002556739733150627</v>
+      </c>
+      <c r="C168">
+        <v>0.001135878025876206</v>
+      </c>
+      <c r="D168">
+        <v>0.00313490410087603</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>MWI</t>
+        </is>
+      </c>
+      <c r="F168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>0.0006312751550328451</v>
+      </c>
+      <c r="B169">
+        <v>0.0002299271229544214</v>
+      </c>
+      <c r="C169">
+        <v>0.001032623187111269</v>
+      </c>
+      <c r="D169">
+        <v>0.003267912761774032</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>MWI</t>
+        </is>
+      </c>
+      <c r="F169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>0.0008990544861518214</v>
+      </c>
+      <c r="B170">
+        <v>0.0002802989133366948</v>
+      </c>
+      <c r="C170">
+        <v>0.001517810058966948</v>
+      </c>
+      <c r="D170">
+        <v>0.006014667433235268</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>MWI</t>
+        </is>
+      </c>
+      <c r="F170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>-0.0006459745982328537</v>
+      </c>
+      <c r="B171">
+        <v>-0.001071101654712433</v>
+      </c>
+      <c r="C171">
+        <v>-0.0002208475417532744</v>
+      </c>
+      <c r="D171">
+        <v>0.004296893271012546</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>MWI</t>
+        </is>
+      </c>
+      <c r="F171">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>0.001041649341689292</v>
+      </c>
+      <c r="B172">
+        <v>0.0005454094443066387</v>
+      </c>
+      <c r="C172">
+        <v>0.001537889239071946</v>
+      </c>
+      <c r="D172">
+        <v>0.000195630969744591</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>MWI</t>
+        </is>
+      </c>
+      <c r="F172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>0.0008839298191347177</v>
+      </c>
+      <c r="B173">
+        <v>0.0003603287199061442</v>
+      </c>
+      <c r="C173">
+        <v>0.001407530918363291</v>
+      </c>
+      <c r="D173">
+        <v>0.001792388192295478</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>MWI</t>
+        </is>
+      </c>
+      <c r="F173">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>0.000502681843208507</v>
+      </c>
+      <c r="B174">
+        <v>-9.086502653631598E-05</v>
+      </c>
+      <c r="C174">
+        <v>0.00109622871295333</v>
+      </c>
+      <c r="D174">
+        <v>0.09365562080654234</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>MWI</t>
+        </is>
+      </c>
+      <c r="F174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>-0.0001184384047184676</v>
+      </c>
+      <c r="B175">
+        <v>-0.003174951071242948</v>
+      </c>
+      <c r="C175">
+        <v>0.002938074261806013</v>
+      </c>
+      <c r="D175">
+        <v>0.9341083529801144</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>NAM</t>
+        </is>
+      </c>
+      <c r="F175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>0.0003991010184276399</v>
+      </c>
+      <c r="B176">
+        <v>-0.002738539403853081</v>
+      </c>
+      <c r="C176">
+        <v>0.003536741440708361</v>
+      </c>
+      <c r="D176">
+        <v>0.7863887308752522</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>NAM</t>
+        </is>
+      </c>
+      <c r="F176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>0.001068046192269772</v>
+      </c>
+      <c r="B177">
+        <v>-0.0003428972483433405</v>
+      </c>
+      <c r="C177">
+        <v>0.002478989632882884</v>
+      </c>
+      <c r="D177">
+        <v>0.1190297838253424</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>NER</t>
+        </is>
+      </c>
+      <c r="F177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>0.002554175074772554</v>
+      </c>
+      <c r="B178">
+        <v>-0.0005609195136849383</v>
+      </c>
+      <c r="C178">
+        <v>0.005669269663230047</v>
+      </c>
+      <c r="D178">
+        <v>0.0953123711207052</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>NER</t>
+        </is>
+      </c>
+      <c r="F178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>0.006288056750261285</v>
+      </c>
+      <c r="B179">
+        <v>-0.003285532861100234</v>
+      </c>
+      <c r="C179">
+        <v>0.0158616463616228</v>
+      </c>
+      <c r="D179">
+        <v>0.1683337256953777</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>NER</t>
+        </is>
+      </c>
+      <c r="F179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>0.000456526450769887</v>
+      </c>
+      <c r="B180">
+        <v>-0.00308162166504742</v>
+      </c>
+      <c r="C180">
+        <v>0.003994674566587193</v>
+      </c>
+      <c r="D180">
+        <v>0.7879446231022471</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>-1.461696919488501E-05</v>
+      </c>
+      <c r="B181">
+        <v>-0.003875025039190969</v>
+      </c>
+      <c r="C181">
+        <v>0.003845791100801198</v>
+      </c>
+      <c r="D181">
+        <v>0.9936948673191699</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>-0.002542799517836814</v>
+      </c>
+      <c r="B182">
+        <v>-0.003708024997360416</v>
+      </c>
+      <c r="C182">
+        <v>-0.001377574038313213</v>
+      </c>
+      <c r="D182">
+        <v>0.003745956795349495</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>NPL</t>
+        </is>
+      </c>
+      <c r="F182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>-0.0003964559029871701</v>
+      </c>
+      <c r="B183">
+        <v>-0.002461333952205303</v>
+      </c>
+      <c r="C183">
+        <v>0.001668422146230963</v>
+      </c>
+      <c r="D183">
+        <v>0.6550822644944998</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>PAK</t>
+        </is>
+      </c>
+      <c r="F183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>0.0003143070531957536</v>
+      </c>
+      <c r="B184">
+        <v>-0.0002722739948196124</v>
+      </c>
+      <c r="C184">
+        <v>0.0009008881012111195</v>
+      </c>
+      <c r="D184">
+        <v>0.2894805159434132</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>PHL</t>
+        </is>
+      </c>
+      <c r="F184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>-0.00137237153740133</v>
+      </c>
+      <c r="B185">
+        <v>-0.001904471422520724</v>
+      </c>
+      <c r="C185">
+        <v>-0.0008402716522819361</v>
+      </c>
+      <c r="D185">
+        <v>1.959742573526466E-06</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>PHL</t>
+        </is>
+      </c>
+      <c r="F185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>-4.450351407911658E-05</v>
+      </c>
+      <c r="B186">
+        <v>-0.000733269594756408</v>
+      </c>
+      <c r="C186">
+        <v>0.0006442625665981748</v>
+      </c>
+      <c r="D186">
+        <v>0.8980089435158775</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>PHL</t>
+        </is>
+      </c>
+      <c r="F186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>0.0001725299145533542</v>
+      </c>
+      <c r="B187">
+        <v>-5.353352011710249E-05</v>
+      </c>
+      <c r="C187">
+        <v>0.0003985933492238109</v>
+      </c>
+      <c r="D187">
+        <v>0.1327547793816947</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>PHL</t>
+        </is>
+      </c>
+      <c r="F187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>0.0004110107513538812</v>
+      </c>
+      <c r="B188">
+        <v>0.0004018412918325355</v>
+      </c>
+      <c r="C188">
+        <v>0.000420180210875227</v>
+      </c>
+      <c r="D188">
+        <v>2.500173756910893E-08</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="F188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>3.381895879516387E-05</v>
+      </c>
+      <c r="B189">
+        <v>-9.165344389831749E-05</v>
+      </c>
+      <c r="C189">
+        <v>0.0001592913614886452</v>
+      </c>
+      <c r="D189">
+        <v>0.4958540508998622</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="F189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>0.001195237363878814</v>
+      </c>
+      <c r="B190">
+        <v>0.001094166265570626</v>
+      </c>
+      <c r="C190">
+        <v>0.001296308462187003</v>
+      </c>
+      <c r="D190">
+        <v>5.131037948670556E-06</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="F190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>0.001041728268439791</v>
+      </c>
+      <c r="B191">
+        <v>0.0008839516796777861</v>
+      </c>
+      <c r="C191">
+        <v>0.001199504857201796</v>
+      </c>
+      <c r="D191">
+        <v>5.209312209840122E-05</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="F191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>0.0003874229568808243</v>
+      </c>
+      <c r="B192">
+        <v>-0.000380978297516366</v>
+      </c>
+      <c r="C192">
+        <v>0.001155824211278015</v>
+      </c>
+      <c r="D192">
+        <v>0.3023169194564878</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>SDN</t>
+        </is>
+      </c>
+      <c r="F192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>0.00217487170254723</v>
+      </c>
+      <c r="B193">
+        <v>0.001516223215855908</v>
+      </c>
+      <c r="C193">
+        <v>0.002833520189238553</v>
+      </c>
+      <c r="D193">
+        <v>2.273383255313138E-06</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>SDN</t>
+        </is>
+      </c>
+      <c r="F193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>-0.0003576023041810262</v>
+      </c>
+      <c r="B194">
+        <v>-0.0007783301166386196</v>
+      </c>
+      <c r="C194">
+        <v>6.312550827656719E-05</v>
+      </c>
+      <c r="D194">
+        <v>0.08929180831820988</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>SEN</t>
+        </is>
+      </c>
+      <c r="F194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>0.0003650573362026947</v>
+      </c>
+      <c r="B195">
+        <v>-0.001841007017137573</v>
+      </c>
+      <c r="C195">
+        <v>0.002571121689542962</v>
+      </c>
+      <c r="D195">
+        <v>0.726457760680888</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>SEN</t>
+        </is>
+      </c>
+      <c r="F195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>0.0003826588049434795</v>
+      </c>
+      <c r="B196">
+        <v>-0.001968562241924521</v>
+      </c>
+      <c r="C196">
+        <v>0.00273387985181148</v>
+      </c>
+      <c r="D196">
+        <v>0.7307733227125794</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>SEN</t>
+        </is>
+      </c>
+      <c r="F196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>0.001718716214328577</v>
+      </c>
+      <c r="B197">
+        <v>-0.004562157779998503</v>
+      </c>
+      <c r="C197">
+        <v>0.007999590208655658</v>
+      </c>
+      <c r="D197">
+        <v>0.5645449454512246</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>SLV</t>
+        </is>
+      </c>
+      <c r="F197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>-0.006617789996376421</v>
+      </c>
+      <c r="B198">
+        <v>-0.008718779305007444</v>
+      </c>
+      <c r="C198">
+        <v>-0.004516800687745398</v>
+      </c>
+      <c r="D198">
+        <v>5.312333712522117E-06</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>SOM</t>
+        </is>
+      </c>
+      <c r="F198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>-0.002913652229103257</v>
+      </c>
+      <c r="B199">
+        <v>-0.004969481594643759</v>
+      </c>
+      <c r="C199">
+        <v>-0.0008578228635627554</v>
+      </c>
+      <c r="D199">
+        <v>0.008400884291438952</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>SOM</t>
+        </is>
+      </c>
+      <c r="F199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>-0.0008863148033377062</v>
+      </c>
+      <c r="B200">
+        <v>-0.004359570110432324</v>
+      </c>
+      <c r="C200">
+        <v>0.002586940503756912</v>
+      </c>
+      <c r="D200">
+        <v>0.5959848808085229</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>SOM</t>
+        </is>
+      </c>
+      <c r="F200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>-0.001854392007960918</v>
+      </c>
+      <c r="B201">
+        <v>-0.005434542623553426</v>
+      </c>
+      <c r="C201">
+        <v>0.001725758607631591</v>
+      </c>
+      <c r="D201">
+        <v>0.2884385222363025</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>SOM</t>
+        </is>
+      </c>
+      <c r="F201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>-0.001746991088115335</v>
+      </c>
+      <c r="B202">
+        <v>-0.003988045834591157</v>
+      </c>
+      <c r="C202">
+        <v>0.0004940636583604865</v>
+      </c>
+      <c r="D202">
+        <v>0.1179074642171555</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>SOM</t>
+        </is>
+      </c>
+      <c r="F202">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>-0.001132685549756166</v>
+      </c>
+      <c r="B203">
+        <v>-0.003130858374712271</v>
+      </c>
+      <c r="C203">
+        <v>0.0008654872751999399</v>
+      </c>
+      <c r="D203">
+        <v>0.2469689356416164</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>SOM</t>
+        </is>
+      </c>
+      <c r="F203">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>-0.0009917174135433266</v>
+      </c>
+      <c r="B204">
+        <v>-0.004751016386430034</v>
+      </c>
+      <c r="C204">
+        <v>0.002767581559343381</v>
+      </c>
+      <c r="D204">
+        <v>0.5837424865556139</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>SOM</t>
+        </is>
+      </c>
+      <c r="F204">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>0.002861614843699377</v>
+      </c>
+      <c r="B205">
+        <v>-0.001773121828074358</v>
+      </c>
+      <c r="C205">
+        <v>0.007496351515473112</v>
+      </c>
+      <c r="D205">
+        <v>0.2137172281146237</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>TCD</t>
+        </is>
+      </c>
+      <c r="F205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>-0.0043415170227645</v>
+      </c>
+      <c r="B206">
+        <v>-0.006892827324967453</v>
+      </c>
+      <c r="C206">
+        <v>-0.001790206720561547</v>
+      </c>
+      <c r="D206">
+        <v>0.001887651278981728</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>TCD</t>
+        </is>
+      </c>
+      <c r="F206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>-0.002222796614150637</v>
+      </c>
+      <c r="B207">
+        <v>-0.006986334147205472</v>
+      </c>
+      <c r="C207">
+        <v>0.002540740918904198</v>
+      </c>
+      <c r="D207">
+        <v>0.3437003685706962</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>TCD</t>
+        </is>
+      </c>
+      <c r="F207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>-0.001170561830154139</v>
+      </c>
+      <c r="B208">
+        <v>-0.002817932751033403</v>
+      </c>
+      <c r="C208">
+        <v>0.0004768090907251255</v>
+      </c>
+      <c r="D208">
+        <v>0.1197791695523615</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>TGO</t>
+        </is>
+      </c>
+      <c r="F208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>0.007762069295997338</v>
+      </c>
+      <c r="B209">
+        <v>0.006923128382078536</v>
+      </c>
+      <c r="C209">
+        <v>0.008601010209916139</v>
+      </c>
+      <c r="D209">
+        <v>9.229902743899311E-30</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="F209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>-0.0007002892069249782</v>
+      </c>
+      <c r="B210">
+        <v>-0.002404109790154223</v>
+      </c>
+      <c r="C210">
+        <v>0.001003531376304266</v>
+      </c>
+      <c r="D210">
+        <v>0.4155743001831761</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="F210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>0.0004421888340539188</v>
+      </c>
+      <c r="B211">
+        <v>-0.01841203696370344</v>
+      </c>
+      <c r="C211">
+        <v>0.01929641463181127</v>
+      </c>
+      <c r="D211">
+        <v>0.9628662732637195</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="F211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>0.000959827562265212</v>
+      </c>
+      <c r="B212">
+        <v>-0.002746852214768216</v>
+      </c>
+      <c r="C212">
+        <v>0.00466650733929864</v>
+      </c>
+      <c r="D212">
+        <v>0.6075370428821483</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="F212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>-0.001639981789457539</v>
+      </c>
+      <c r="B213">
+        <v>-0.004734375077384346</v>
+      </c>
+      <c r="C213">
+        <v>0.001454411498469269</v>
+      </c>
+      <c r="D213">
+        <v>0.2945149091107413</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="F213">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>-0.0003357398087427587</v>
+      </c>
+      <c r="B214">
+        <v>-0.001603710349278569</v>
+      </c>
+      <c r="C214">
+        <v>0.0009322307317930518</v>
+      </c>
+      <c r="D214">
+        <v>0.5994760410482475</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="F214">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>-0.0008314297385904561</v>
+      </c>
+      <c r="B215">
+        <v>-0.004003860830221373</v>
+      </c>
+      <c r="C215">
+        <v>0.002341001353040461</v>
+      </c>
+      <c r="D215">
+        <v>0.6032044427062255</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="F215">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>0.0004337682868393133</v>
+      </c>
+      <c r="B216">
+        <v>-0.001154180021001088</v>
+      </c>
+      <c r="C216">
+        <v>0.002021716594679714</v>
+      </c>
+      <c r="D216">
+        <v>0.5879991580491577</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="F216">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>-0.003220447756592376</v>
+      </c>
+      <c r="B217">
+        <v>-0.004554444106198062</v>
+      </c>
+      <c r="C217">
+        <v>-0.001886451406986691</v>
+      </c>
+      <c r="D217">
+        <v>7.525229404345361E-06</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="F217">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>0.001401995662115619</v>
+      </c>
+      <c r="B218">
+        <v>-0.002713200065845499</v>
+      </c>
+      <c r="C218">
+        <v>0.005517191390076738</v>
+      </c>
+      <c r="D218">
+        <v>0.4994916566277665</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="F218">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>0.001501077053654315</v>
+      </c>
+      <c r="B219">
+        <v>-0.00335603508408356</v>
+      </c>
+      <c r="C219">
+        <v>0.00635818919139219</v>
+      </c>
+      <c r="D219">
+        <v>0.5400496838451202</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="F219">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>0.001478915989446841</v>
+      </c>
+      <c r="B220">
+        <v>0.0003679704504599465</v>
+      </c>
+      <c r="C220">
+        <v>0.002589861528433736</v>
+      </c>
+      <c r="D220">
+        <v>0.009752299147562603</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="F220">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>-0.001856893143262454</v>
+      </c>
+      <c r="B221">
+        <v>-0.00289886075593807</v>
+      </c>
+      <c r="C221">
+        <v>-0.0008149255305868379</v>
+      </c>
+      <c r="D221">
+        <v>0.0006662517424735892</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="F221">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>-0.002929617808918789</v>
+      </c>
+      <c r="B222">
+        <v>-0.004568321321785053</v>
+      </c>
+      <c r="C222">
+        <v>-0.001290914296052525</v>
+      </c>
+      <c r="D222">
+        <v>0.0006422221313868182</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="F222">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>0.004153207157670166</v>
+      </c>
+      <c r="B223">
+        <v>0.001190702385804516</v>
+      </c>
+      <c r="C223">
+        <v>0.007115711929535815</v>
+      </c>
+      <c r="D223">
+        <v>0.006619225699536255</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="F223">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>-0.008000383041590389</v>
+      </c>
+      <c r="B224">
+        <v>-0.01005193044514011</v>
+      </c>
+      <c r="C224">
+        <v>-0.005948835638040671</v>
+      </c>
+      <c r="D224">
+        <v>3.072439249010429E-11</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="F224">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>-0.0001539421377066691</v>
+      </c>
+      <c r="B225">
+        <v>-0.0009842348499934769</v>
+      </c>
+      <c r="C225">
+        <v>0.0006763505745801386</v>
+      </c>
+      <c r="D225">
+        <v>0.6338503108150173</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>TJK</t>
+        </is>
+      </c>
+      <c r="F225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>7.256879545811627E-06</v>
+      </c>
+      <c r="B226">
+        <v>-0.0008076210467117832</v>
+      </c>
+      <c r="C226">
+        <v>0.0008221348058034064</v>
+      </c>
+      <c r="D226">
+        <v>0.981458178039093</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>TJK</t>
+        </is>
+      </c>
+      <c r="F226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>9.592463595767573E-05</v>
+      </c>
+      <c r="B227">
+        <v>-0.001292217234708717</v>
+      </c>
+      <c r="C227">
+        <v>0.001484066506624068</v>
+      </c>
+      <c r="D227">
+        <v>0.8828222345652051</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>TLS</t>
+        </is>
+      </c>
+      <c r="F227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>-0.000556937140672145</v>
+      </c>
+      <c r="B228">
+        <v>-0.001413500668807506</v>
+      </c>
+      <c r="C228">
+        <v>0.0002996263874632161</v>
+      </c>
+      <c r="D228">
+        <v>0.1939472711785752</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>TZA</t>
+        </is>
+      </c>
+      <c r="F228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>0.0001398553612929672</v>
+      </c>
+      <c r="B229">
+        <v>-0.000706966099038998</v>
+      </c>
+      <c r="C229">
+        <v>0.0009866768216249323</v>
+      </c>
+      <c r="D229">
+        <v>0.7379646135261674</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>TZA</t>
+        </is>
+      </c>
+      <c r="F229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>0.001266718163952902</v>
+      </c>
+      <c r="B230">
+        <v>0.0006041193941356564</v>
+      </c>
+      <c r="C230">
+        <v>0.001929316933770149</v>
+      </c>
+      <c r="D230">
+        <v>0.0005106029370077357</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>TZA</t>
+        </is>
+      </c>
+      <c r="F230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>-0.0015232922242064</v>
+      </c>
+      <c r="B231">
+        <v>-0.002220130321252575</v>
+      </c>
+      <c r="C231">
+        <v>-0.0008264541271602258</v>
+      </c>
+      <c r="D231">
+        <v>0.0001100392466158382</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>TZA</t>
+        </is>
+      </c>
+      <c r="F231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>0.0005315160256428678</v>
+      </c>
+      <c r="B232">
+        <v>-0.0005546647300769999</v>
+      </c>
+      <c r="C232">
+        <v>0.001617696781362735</v>
+      </c>
+      <c r="D232">
+        <v>0.325191663680455</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>TZA</t>
+        </is>
+      </c>
+      <c r="F232">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>-0.0003606935334640008</v>
+      </c>
+      <c r="B233">
+        <v>-0.001090113838635986</v>
+      </c>
+      <c r="C233">
+        <v>0.0003687267717079848</v>
+      </c>
+      <c r="D233">
+        <v>0.3202120284494889</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>TZA</t>
+        </is>
+      </c>
+      <c r="F233">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>0.001010223502208484</v>
+      </c>
+      <c r="B234">
+        <v>0.0003604716369568921</v>
+      </c>
+      <c r="C234">
+        <v>0.001659975367460076</v>
+      </c>
+      <c r="D234">
+        <v>0.003493175133287911</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>TZA</t>
+        </is>
+      </c>
+      <c r="F234">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>-0.0002145245609241592</v>
+      </c>
+      <c r="B235">
+        <v>-0.0005593275321819258</v>
+      </c>
+      <c r="C235">
+        <v>0.0001302784103336074</v>
+      </c>
+      <c r="D235">
+        <v>0.217825404504446</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>8.183748007648788E-05</v>
+      </c>
+      <c r="B236">
+        <v>-0.0002685140533585035</v>
+      </c>
+      <c r="C236">
+        <v>0.0004321890135114792</v>
+      </c>
+      <c r="D236">
+        <v>0.6416503441057142</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>-0.002807732402518549</v>
+      </c>
+      <c r="B237">
+        <v>-0.003283483854410229</v>
+      </c>
+      <c r="C237">
+        <v>-0.002331980950626868</v>
+      </c>
+      <c r="D237">
+        <v>7.52357103216545E-17</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <v>0.002009787749869756</v>
+      </c>
+      <c r="B238">
+        <v>0.001651691203248514</v>
+      </c>
+      <c r="C238">
+        <v>0.002367884296490999</v>
+      </c>
+      <c r="D238">
+        <v>5.526868642620119E-16</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>0.001610065840328181</v>
+      </c>
+      <c r="B239">
+        <v>0.001145462407360072</v>
+      </c>
+      <c r="C239">
+        <v>0.00207466927329629</v>
+      </c>
+      <c r="D239">
+        <v>4.312615723075902E-09</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F239">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>-0.0008115453003969662</v>
+      </c>
+      <c r="B240">
+        <v>-0.002463106486810404</v>
+      </c>
+      <c r="C240">
+        <v>0.0008400158860164714</v>
+      </c>
+      <c r="D240">
+        <v>0.3077579273238932</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>UZB</t>
+        </is>
+      </c>
+      <c r="F240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>0.0003697585221406176</v>
+      </c>
+      <c r="B241">
+        <v>0.000155140067044645</v>
+      </c>
+      <c r="C241">
+        <v>0.0005843769772365902</v>
+      </c>
+      <c r="D241">
+        <v>0.004102057070841269</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="F241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
+        <v>4.833715435804198E-05</v>
+      </c>
+      <c r="B242">
+        <v>-0.0001157258964442514</v>
+      </c>
+      <c r="C242">
+        <v>0.0002124002051603353</v>
+      </c>
+      <c r="D242">
+        <v>0.5160517912279567</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="F242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243">
+        <v>0.0001211310252099122</v>
+      </c>
+      <c r="B243">
+        <v>-4.139742244650433E-05</v>
+      </c>
+      <c r="C243">
+        <v>0.0002836594728663287</v>
+      </c>
+      <c r="D243">
+        <v>0.1240002303698823</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="F243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244">
+        <v>-0.001260374003331867</v>
+      </c>
+      <c r="B244">
+        <v>-0.001469374213076604</v>
+      </c>
+      <c r="C244">
+        <v>-0.00105137379358713</v>
+      </c>
+      <c r="D244">
+        <v>6.920204695088921E-07</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="F244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245">
+        <v>-0.0003961771584864658</v>
+      </c>
+      <c r="B245">
+        <v>-0.0005721650379145601</v>
+      </c>
+      <c r="C245">
+        <v>-0.0002201892790583715</v>
+      </c>
+      <c r="D245">
+        <v>0.0008313022140676295</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="F245">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
+        <v>1.257002779230132E-05</v>
+      </c>
+      <c r="B246">
+        <v>-0.0001477383123859949</v>
+      </c>
+      <c r="C246">
+        <v>0.0001728783679705975</v>
+      </c>
+      <c r="D246">
+        <v>0.8610077225341105</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="F246">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247">
+        <v>0.0008277669069140359</v>
+      </c>
+      <c r="B247">
+        <v>0.0004760168322947808</v>
+      </c>
+      <c r="C247">
+        <v>0.001179516981533291</v>
+      </c>
+      <c r="D247">
+        <v>0.0004787740385737527</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>ZMB</t>
+        </is>
+      </c>
+      <c r="F247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <v>0.001262997546408395</v>
+      </c>
+      <c r="B248">
+        <v>0.0009254119209015671</v>
+      </c>
+      <c r="C248">
+        <v>0.001600583171915222</v>
+      </c>
+      <c r="D248">
+        <v>1.407786631503501E-05</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>ZMB</t>
+        </is>
+      </c>
+      <c r="F248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>0.0009166369352418296</v>
+      </c>
+      <c r="B249">
+        <v>0.0006159103666846219</v>
+      </c>
+      <c r="C249">
+        <v>0.001217363503799037</v>
+      </c>
+      <c r="D249">
+        <v>7.104721748378821E-05</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>ZMB</t>
+        </is>
+      </c>
+      <c r="F249">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>0.0004205213981284029</v>
+      </c>
+      <c r="B250">
+        <v>7.408311687185433E-05</v>
+      </c>
+      <c r="C250">
+        <v>0.0007669596793849515</v>
+      </c>
+      <c r="D250">
+        <v>0.02262801541338521</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>ZMB</t>
+        </is>
+      </c>
+      <c r="F250">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>0.000751772819740233</v>
+      </c>
+      <c r="B251">
+        <v>0.0005113395374293597</v>
+      </c>
+      <c r="C251">
+        <v>0.0009922061020511063</v>
+      </c>
+      <c r="D251">
+        <v>5.835656156613734E-05</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>ZWE</t>
+        </is>
+      </c>
+      <c r="F251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>-0.0007810752027432157</v>
+      </c>
+      <c r="B252">
+        <v>-0.001133654552065475</v>
+      </c>
+      <c r="C252">
+        <v>-0.0004284958534209567</v>
+      </c>
+      <c r="D252">
+        <v>0.0007275693049199107</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>ZWE</t>
+        </is>
+      </c>
+      <c r="F252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>-0.0004491562633727866</v>
+      </c>
+      <c r="B253">
+        <v>-0.00106062421353187</v>
+      </c>
+      <c r="C253">
+        <v>0.0001623116867862972</v>
+      </c>
+      <c r="D253">
+        <v>0.1309434399645357</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>ZWE</t>
+        </is>
+      </c>
+      <c r="F253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254">
+        <v>-0.0004840749546125936</v>
+      </c>
+      <c r="B254">
+        <v>-0.000798893258222717</v>
+      </c>
+      <c r="C254">
+        <v>-0.0001692566510024702</v>
+      </c>
+      <c r="D254">
+        <v>0.006956430073701158</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>ZWE</t>
+        </is>
+      </c>
+      <c r="F254">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <v>-0.0002449965906666635</v>
+      </c>
+      <c r="B255">
+        <v>-0.0005034832837945758</v>
+      </c>
+      <c r="C255">
+        <v>1.349010246124897E-05</v>
+      </c>
+      <c r="D255">
+        <v>0.06061588334721593</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>ZWE</t>
+        </is>
+      </c>
+      <c r="F255">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
